--- a/HR Open Standards/HR-EmployerHistoryType.xlsx
+++ b/HR Open Standards/HR-EmployerHistoryType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartsutton/Documents/github/desmSchemas/HR Open Standards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA198F3-AC6F-B142-888E-2172EB511AFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7054AA-85A9-474A-958C-9E776CB9DB85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23740" yWindow="500" windowWidth="23280" windowHeight="25260" xr2:uid="{E481E8BE-3CB4-BC40-B8CA-DF1BBD154325}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="158">
   <si>
     <t>location  [LocationType.json]</t>
   </si>
@@ -392,9 +392,6 @@
     <t>workSchedule [ScheduleType.json]</t>
   </si>
   <si>
-    <t>fullTimeEquivalentRatio [ratioType.json]</t>
-  </si>
-  <si>
     <t>effectiveDate [EffectiveTimePeriodType.json]</t>
   </si>
   <si>
@@ -471,42 +468,7 @@
     <t>wageHourLawCoverageIndicator [IndicatorType.json boolean]</t>
   </si>
   <si>
-    <t>newHireProbationaryDuration [DurationType.json]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">organization </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>[OrgaizationType.json]</t>
-    </r>
-  </si>
-  <si>
     <t>licenses [LicenseType.json]</t>
-  </si>
-  <si>
-    <t>certifications [CertificationType.json]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">statusCode </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>[enum: "Active" "Inactive"]</t>
-    </r>
-  </si>
-  <si>
-    <t>statusEffectiveDate [DateType.json]</t>
   </si>
   <si>
     <r>
@@ -697,6 +659,167 @@
       </rPr>
       <t xml:space="preserve"> [UnitCodeList.json]</t>
     </r>
+  </si>
+  <si>
+    <t>period [PeriodType.json anyOf FormattedDateTimeType.json, DateTimePeriodType.json, DatePeriodType.json, YearMonthPeriodType.json, YearPeriodType.json]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">schedules </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[DayScheduleType]</t>
+    </r>
+  </si>
+  <si>
+    <t>hours [DurationType.json]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">weekday </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[WeekdayCodeList.json]</t>
+    </r>
+  </si>
+  <si>
+    <t>date [TimeType.json string]</t>
+  </si>
+  <si>
+    <t>startTime [TimeType.json string]</t>
+  </si>
+  <si>
+    <t>endTime [TimeType.json string]</t>
+  </si>
+  <si>
+    <t>hours [DurationType.json ISO 8601 string]</t>
+  </si>
+  <si>
+    <t>start [DateTimeType.json</t>
+  </si>
+  <si>
+    <t>shift [EntityType.json]</t>
+  </si>
+  <si>
+    <t>fullTimeEquivalentRatio [RatioType.json number]</t>
+  </si>
+  <si>
+    <t>validFrom [DateTimeType.json]</t>
+  </si>
+  <si>
+    <t>validTo [DateTimeType.json]</t>
+  </si>
+  <si>
+    <t>newHireProbationaryDuration [DurationType.json ISO 8601 string]</t>
+  </si>
+  <si>
+    <t>type [EntityType.json]</t>
+  </si>
+  <si>
+    <t>status [string]</t>
+  </si>
+  <si>
+    <t>effectiveTimePeriod [EffectiveTimePeriodType.json]</t>
+  </si>
+  <si>
+    <t>issued [FormattedDateTimeType.json]</t>
+  </si>
+  <si>
+    <t>firstIssued [FormattedDateTimeType.json]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">issuingAuthority </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[OrganizationType.json]</t>
+    </r>
+  </si>
+  <si>
+    <t>attachmentReferences [AttachmentReferenceType.json]</t>
+  </si>
+  <si>
+    <t>reference [IdentifierType.json]</t>
+  </si>
+  <si>
+    <t>descriptions [StringTypeArray.json]</t>
+  </si>
+  <si>
+    <t>descriptions: [StringTypeArray.json]</t>
+  </si>
+  <si>
+    <t>endorsements  [array]</t>
+  </si>
+  <si>
+    <t>restrictions [array]</t>
+  </si>
+  <si>
+    <t>violations [array]</t>
+  </si>
+  <si>
+    <t>laborBargainingUnitIndicator [IndicatorType.json boolean]</t>
+  </si>
+  <si>
+    <t>laborBargainingUnitCode [CodeType.json string]</t>
+  </si>
+  <si>
+    <t>laborBargainingUnitMemberId [IdentifierType.json boolean]</t>
+  </si>
+  <si>
+    <t>newHireProbationaryIndicator [IndicatorType.json boolean]</t>
+  </si>
+  <si>
+    <t>certifications [CertificationType.json array]</t>
+  </si>
+  <si>
+    <r>
+      <t>issuingAuthority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> [OrganizationType.json]</t>
+    </r>
+  </si>
+  <si>
+    <t>descriptions</t>
+  </si>
+  <si>
+    <t>[StringTypeArray.json]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">statusCode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[enum "Active" "Inactive"]</t>
+    </r>
+  </si>
+  <si>
+    <t>statusEffectiveDate [DateType.json string]</t>
   </si>
 </sst>
 </file>
@@ -747,8 +870,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A711EF4D-8C85-2345-B7B3-BC7B816146D2}">
-  <dimension ref="A1:G349"/>
+  <dimension ref="A1:G415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C249" sqref="C249"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1652,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -1761,7 +1885,7 @@
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
@@ -1916,37 +2040,37 @@
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.2">
@@ -1981,12 +2105,12 @@
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="3:5" x14ac:dyDescent="0.2">
@@ -2021,12 +2145,12 @@
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
@@ -2061,7 +2185,7 @@
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
@@ -2111,7 +2235,7 @@
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
@@ -2121,47 +2245,47 @@
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C212" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C213" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C214" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C215" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C216" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C217" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C218" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C219" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C220" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
@@ -2171,27 +2295,27 @@
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D222" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C223" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C225" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C226" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
@@ -2201,27 +2325,27 @@
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C229" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C230" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C231" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D232" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.2">
@@ -2231,7 +2355,7 @@
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D234" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.2">
@@ -2256,162 +2380,897 @@
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C239" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C240" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C241" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C242" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C243" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C244" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C246" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C247" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B328" t="s">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C249" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D250" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D251" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D252" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D253" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D254" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D255" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D256" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C257" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C258" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="259" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C259" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="260" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D260" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="261" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D261" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C262" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="263" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C263" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="264" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D264" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E265" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E266" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E267" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E268" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E269" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E270" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E271" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D272" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D273" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="274" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D274" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="275" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D275" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="276" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D276" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="277" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D277" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="278" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D278" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="279" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D279" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="280" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E280" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F281" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F282" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F283" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F284" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F285" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F286" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="287" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F287" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="288" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E288" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E289" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C293" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C294" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C297" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C298" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B329" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B330" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B331" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B332" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C333" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C334" t="s">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C301" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C302" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C303" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B307" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B308" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B309" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B310" s="1"/>
+      <c r="C310" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B335" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B336" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C337" t="s">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B311" s="1"/>
+      <c r="C311" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B312" s="1"/>
+      <c r="C312" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B313" s="1"/>
+      <c r="C313" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B314" s="1"/>
+      <c r="C314" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B315" s="1"/>
+      <c r="C315" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B316" s="1"/>
+      <c r="C316" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B317" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="321" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C321" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="322" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D322" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="323" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D323" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D324" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="325" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D325" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="326" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D326" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="327" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D327" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="328" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D328" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="329" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C329" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="330" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C330" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="331" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D331" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E332" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E333" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E334" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="335" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E335" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="336" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E336" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="337" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E337" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="338" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E338" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="339" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C339" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="340" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C340" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="341" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D341" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="342" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D342" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="343" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C343" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="344" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C344" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="345" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C345" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="346" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C346" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="347" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D347" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="348" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E348" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="349" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E349" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E350" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="351" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E351" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="352" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E352" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="353" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E353" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E354" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="355" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D355" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="356" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D356" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="357" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C357" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="358" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C358" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="359" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D359" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="360" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D360" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="361" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D361" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D362" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="363" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C363" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="364" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D364" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="365" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D365" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="366" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D366" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="367" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D367" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="368" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C368" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D369" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D370" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D371" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D372" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C374" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D375" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D376" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D377" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D378" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D379" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D380" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D381" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C382" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C383" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D384" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="385" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E385" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="386" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E386" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="387" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E387" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="388" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E388" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="389" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E389" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="390" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E390" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="391" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E391" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="392" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D392" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="393" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D393" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C338" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C339" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B340" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B341" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B342" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B343" t="s">
+    <row r="394" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C394" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="395" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C395" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="396" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D396" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="397" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D397" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="398" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C398" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="399" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C399" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="400" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C400" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C401" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D402" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E403" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E404" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E405" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E406" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E407" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E408" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E409" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D410" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D411" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C412" t="s">
+        <v>154</v>
+      </c>
+      <c r="D412" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B413" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B414" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B415" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B344" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B345" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B346" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B347" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B348" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B349" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
